--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFDDC724-DF4D-40CF-9843-93C6962494FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0AF820-1CE8-4CAC-A2AF-5331739AEF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="3285" windowWidth="26490" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="3105" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cookie</t>
   </si>
   <si>
-    <t>Куки №1</t>
-  </si>
-  <si>
-    <t>Куки №2</t>
-  </si>
-  <si>
-    <t>Куки №3</t>
-  </si>
-  <si>
-    <t>Куки №4</t>
-  </si>
-  <si>
-    <t>Куки нужно вручную кинуть когда дойдем до последнего этапа</t>
-  </si>
-  <si>
-    <t>И авторизоватся нужно будет вместе, так как я должен сказать стим гуард код для входа</t>
+    <t>timezoneOffset=-25200,0; browserid=132400307106941766; strInventoryLastContext=578080_2; sessionid=1ef43a51463c1c694ad30a26; steamCountry=DE%7C6d83d682e61bba03efa4076e6f99583a; steamLoginSecure=76561199024280128%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNV8yNjIwNkQxQV84NThERiIsICJzdWIiOiAiNzY1NjExOTkwMjQyODAxMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ4MzQ0MjQsICJuYmYiOiAxNzM2MTA3NTU0LCAiaWF0IjogMTc0NDc0NzU1NCwgImp0aSI6ICIwMDAxXzI2MjA2QkMwXzE3MjE2IiwgIm9hdCI6IDE3NDQ3NDc1NTQsICJydF9leHAiOiAxNzYyNjgzODcyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5Ni4zMi4yNTMiLCAiaXBfY29uZmlybWVyIjogIjE1NC4xOTYuMzIuMjUzIiB9.eGSVC8KADW05gYXxH20jhE-fuhhvSYuyzKSwpo52SZG1Eex3uT_wp0eUSycgX7Xc3sWLHPGxZ50WFNlo0DGABw; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1744747560%7D</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>828softloan2u</t>
+  </si>
+  <si>
+    <t>sessionid=d265a8435d07d493059e7f88; steamCountry=DE%7C37746249eabdd79a1db02253d3444e0b; timezoneOffset=-25200,0; steamLoginSecure=76561197996619158%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJCRV85NzUzNyIsICJzdWIiOiAiNzY1NjExOTc5OTY2MTkxNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ4MzkwNzUsICJuYmYiOiAxNzM2MTEyMTk2LCAiaWF0IjogMTc0NDc1MjE5NiwgImp0aSI6ICIwMDA2XzI2MjA2RDE2X0JGMjhCIiwgIm9hdCI6IDE3NDQ3NTIxOTYsICJydF9leHAiOiAxNzYzMjE2NTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS43LjIwNyIsICJpcF9jb25maXJtZXIiOiAiMTU0LjE5NS43LjIwNyIgfQ.DqKdVnxgEp7haqzVGws6xxmFDVjUC12mtijo3lIsH7ce8f5lbPsz2VprpE54b9KghQeF3iT7FADXTT5vrsREBA; browserid=17559226206698645</t>
+  </si>
+  <si>
+    <t>felipess12</t>
+  </si>
+  <si>
+    <t>alex_pankov</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=682f269211a85391f0c6b1ec; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ4NDM2MDEsICJuYmYiOiAxNzM2MTE2MTgwLCAiaWF0IjogMTc0NDc1NjE4MCwgImp0aSI6ICIwMDAxXzI2Mjg3RjE1XzU1Q0IxIiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.UtOi03fT0mCPnBDOrSLx_GI_XpYaFygwRgTSnkZ2T91WSL4pQEIkmb5yJhV2GHbb-WnqqnXD7mlrmpqQOSfFBg</t>
+  </si>
+  <si>
+    <t>bebaane</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwOF8yNjI4N0YxRF8zNkNENSIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDQ4NDI3MDgsICJuYmYiOiAxNzM2MTE1NTQ0LCAiaWF0IjogMTc0NDc1NTU0NCwgImp0aSI6ICIwMDE2XzI2Mjg3RjFEXzM3QUEzIiwgIm9hdCI6IDE3NDQ3NTU1NDQsICJydF9leHAiOiAxNzYyOTYzNjg0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTY2LjEuMjM2LjY1IiwgImlwX2NvbmZpcm1lciI6ICIxNjYuMS4yMzYuNjUiIH0.vw_vRocD5qMJ2udPnbzoZ9bMaJRh_92T9NIadlH4uPeXZRQenyVhRfeLDxnIjeqMdo20MM6rOiGJxuffwh4MAQ; browserid=67099380477335442; sessionid=8c77a05c0481eb4822e285fb</t>
   </si>
 </sst>
 </file>
@@ -369,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,39 +389,44 @@
     <col min="1" max="1" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы для тестов Алексей\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7293A93-8AB6-45CB-A41D-8F59E22248EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BCB4B-63DA-4CCA-9AC9-76669F6D3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="3450" windowWidth="18825" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="2760" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,14 @@
     <t>alex_pankov</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; browserid=67099380477335442; strInventoryLastContext=730_2; sessionid=09775c3aec39aa8a6fb9c9cc; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwM18yNjI4N0YzQl9DNDFFMSIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDUwMTAzNzgsICJuYmYiOiAxNzM2MjgyMzY2LCAiaWF0IjogMTc0NDkyMjM2NiwgImp0aSI6ICIwMDE2XzI2Mjg3RjNDX0I3ODIzIiwgIm9hdCI6IDE3NDQ5MjIzNjYsICJydF9leHAiOiAxNzQ3NTQ4NDgxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.2TjAo8o6CoLcnLWxSylZnhRz45BzksepZIWL4h6IyEB8YrwNT7eUzS5zQGDooJSDZHbrJRVpmVavVcT_vMqTBQ</t>
+    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; sessionid=328fe6c9bfea4da27043e223; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDUxNjg1NzcsICJuYmYiOiAxNzM2NDQyMTU0LCAiaWF0IjogMTc0NTA4MjE1NCwgImp0aSI6ICIwMDE2XzI2Mjg3RjVDXzY2ODEwIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.qWKawMDWQyP5g5gCodT-GEmslmArZD-6ouTX6hGJ2y-J-CUma7HP0CbbaJd-QDpy4srabLyvh156pU4jJPx2CQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF191D17"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -363,12 +371,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -380,7 +389,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BCB4B-63DA-4CCA-9AC9-76669F6D3704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E987E89-37F3-4078-8040-92B684429B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="2760" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Cookie</t>
   </si>
@@ -33,17 +33,35 @@
     <t>Login</t>
   </si>
   <si>
+    <t>felipess12</t>
+  </si>
+  <si>
+    <t>bebaane</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=17559226206698645; sessionid=64173c8652b71fa66bce9a9c; steamDidLoginRefresh=1745588263; steamCountry=DE%7C37746249eabdd79a1db02253d3444e0b; steamLoginSecure=76561197996619158%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJCRV85NzUzNyIsICJzdWIiOiAiNzY1NjExOTc5OTY2MTkxNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU2NzYxODcsICJuYmYiOiAxNzM2OTQ4MjYzLCAiaWF0IjogMTc0NTU4ODI2MywgImp0aSI6ICIwMDA2XzI2MzFCQzA1X0M5RDI3IiwgIm9hdCI6IDE3NDQ3NTIxOTYsICJydF9leHAiOiAxNzYzMjE2NTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS43LjIwNyIsICJpcF9jb25maXJtZXIiOiAiMTU0LjE5NS43LjIwNyIgfQ.IoFg1La09ubmRemMC_resOtdmM3bwJYVRzf-9mhkzCyqp07F6HwhRElVpacnp5vLOpom8ysIz9KwObrFLfvxAA</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU2NzU2ODAsICJuYmYiOiAxNzM2OTQ3NTYxLCAiaWF0IjogMTc0NTU4NzU2MSwgImp0aSI6ICIwMDE2XzI2MzFCQkZBXzQyODFEIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.qkaGQsgr3bu2dk8pI3IxHe_ijjPInCkV2MWg9zkhvePMMQgvm1j4K8Wc5PNhRciThCsIeiS-TfrqRab_StuWAA; sessionid=073922d196a0a0608c120a6a; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745588383%7D</t>
+  </si>
+  <si>
     <t>alex_pankov</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; sessionid=328fe6c9bfea4da27043e223; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDUxNjg1NzcsICJuYmYiOiAxNzM2NDQyMTU0LCAiaWF0IjogMTc0NTA4MjE1NCwgImp0aSI6ICIwMDE2XzI2Mjg3RjVDXzY2ODEwIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.qWKawMDWQyP5g5gCodT-GEmslmArZD-6ouTX6hGJ2y-J-CUma7HP0CbbaJd-QDpy4srabLyvh156pU4jJPx2CQ</t>
+    <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=91229d634979a447457c07e4; steamDidLoginRefresh=1745618860; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU3MDU0NzEsICJuYmYiOiAxNzM2OTc4ODYxLCAiaWF0IjogMTc0NTYxODg2MSwgImp0aSI6ICIwMDAxXzI2MzFCQzA0X0E2MjhFIiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.n4-CAICs8WGAIl5DpJpYCjO1-VIw8_vURq_uRQbcd2I4NNDRXi7VDUUvBFHQhSuqAkVhDQ9j4W2s5jafHb-GDw</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=132400307106941766; sessionid=959b618fe6fbc16a447b85ec; steamCountry=DE%7C6d83d682e61bba03efa4076e6f99583a; steamLoginSecure=76561199024280128%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNV8yNjIwNkQxQV84NThERiIsICJzdWIiOiAiNzY1NjExOTkwMjQyODAxMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU3MDc2MjgsICJuYmYiOiAxNzM2OTgwODk0LCAiaWF0IjogMTc0NTYyMDg5NCwgImp0aSI6ICIwMDAxXzI2MzFCQzA1XzI5ODYwIiwgIm9hdCI6IDE3NDQ3NDc1NTQsICJydF9leHAiOiAxNzYyNjgzODcyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5Ni4zMi4yNTMiLCAiaXBfY29uZmlybWVyIjogIjE1NC4xOTYuMzIuMjUzIiB9.egOvxVDXmCt258oHoEJ-sXreGErUcL4_9-nfT4F6e3Jes-BmIvaLdm-dQFfIzb2c-rZzZShuZPvuPU27GnPlCA</t>
+  </si>
+  <si>
+    <t>828softloan2u</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,7 +77,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF22191B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF191D17"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF221A15"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -85,9 +117,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -368,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,11 +423,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E987E89-37F3-4078-8040-92B684429B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856FB5A-8935-4F31-8272-2AB75BD3B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,22 +39,22 @@
     <t>bebaane</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; browserid=17559226206698645; sessionid=64173c8652b71fa66bce9a9c; steamDidLoginRefresh=1745588263; steamCountry=DE%7C37746249eabdd79a1db02253d3444e0b; steamLoginSecure=76561197996619158%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJCRV85NzUzNyIsICJzdWIiOiAiNzY1NjExOTc5OTY2MTkxNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU2NzYxODcsICJuYmYiOiAxNzM2OTQ4MjYzLCAiaWF0IjogMTc0NTU4ODI2MywgImp0aSI6ICIwMDA2XzI2MzFCQzA1X0M5RDI3IiwgIm9hdCI6IDE3NDQ3NTIxOTYsICJydF9leHAiOiAxNzYzMjE2NTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS43LjIwNyIsICJpcF9jb25maXJtZXIiOiAiMTU0LjE5NS43LjIwNyIgfQ.IoFg1La09ubmRemMC_resOtdmM3bwJYVRzf-9mhkzCyqp07F6HwhRElVpacnp5vLOpom8ysIz9KwObrFLfvxAA</t>
-  </si>
-  <si>
-    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU2NzU2ODAsICJuYmYiOiAxNzM2OTQ3NTYxLCAiaWF0IjogMTc0NTU4NzU2MSwgImp0aSI6ICIwMDE2XzI2MzFCQkZBXzQyODFEIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.qkaGQsgr3bu2dk8pI3IxHe_ijjPInCkV2MWg9zkhvePMMQgvm1j4K8Wc5PNhRciThCsIeiS-TfrqRab_StuWAA; sessionid=073922d196a0a0608c120a6a; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745588383%7D</t>
-  </si>
-  <si>
     <t>alex_pankov</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=91229d634979a447457c07e4; steamDidLoginRefresh=1745618860; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU3MDU0NzEsICJuYmYiOiAxNzM2OTc4ODYxLCAiaWF0IjogMTc0NTYxODg2MSwgImp0aSI6ICIwMDAxXzI2MzFCQzA0X0E2MjhFIiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.n4-CAICs8WGAIl5DpJpYCjO1-VIw8_vURq_uRQbcd2I4NNDRXi7VDUUvBFHQhSuqAkVhDQ9j4W2s5jafHb-GDw</t>
-  </si>
-  <si>
-    <t>timezoneOffset=-25200,0; browserid=132400307106941766; sessionid=959b618fe6fbc16a447b85ec; steamCountry=DE%7C6d83d682e61bba03efa4076e6f99583a; steamLoginSecure=76561199024280128%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNV8yNjIwNkQxQV84NThERiIsICJzdWIiOiAiNzY1NjExOTkwMjQyODAxMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU3MDc2MjgsICJuYmYiOiAxNzM2OTgwODk0LCAiaWF0IjogMTc0NTYyMDg5NCwgImp0aSI6ICIwMDAxXzI2MzFCQzA1XzI5ODYwIiwgIm9hdCI6IDE3NDQ3NDc1NTQsICJydF9leHAiOiAxNzYyNjgzODcyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5Ni4zMi4yNTMiLCAiaXBfY29uZmlybWVyIjogIjE1NC4xOTYuMzIuMjUzIiB9.egOvxVDXmCt258oHoEJ-sXreGErUcL4_9-nfT4F6e3Jes-BmIvaLdm-dQFfIzb2c-rZzZShuZPvuPU27GnPlCA</t>
-  </si>
-  <si>
     <t>828softloan2u</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; sessionid=b088deff33e9a184c895f7bf; steamDidLoginRefresh=1745776727; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQ0MzAsICJuYmYiOiAxNzM3MTM2NzI3LCAiaWF0IjogMTc0NTc3NjcyNywgImp0aSI6ICIwMDE2XzI2MzFCQzJFX0JEQjBDIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.uVfsdyXFzFS5zxUERIsq4PogdZorulqkTCEtFNOvtcubn_C150HNjrs8jQhJYQTWU_BeNpaTxFdbIj7HXjMdCg; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745776730%7D</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=132400307106941766; sessionid=961b8914a2bb9476b4bb7999; steamDidLoginRefresh=1745776927; steamCountry=DE%7C6d83d682e61bba03efa4076e6f99583a; steamLoginSecure=76561199024280128%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNV8yNjIwNkQxQV84NThERiIsICJzdWIiOiAiNzY1NjExOTkwMjQyODAxMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQzMDEsICJuYmYiOiAxNzM3MTM2OTMxLCAiaWF0IjogMTc0NTc3NjkzMSwgImp0aSI6ICIwMDAxXzI2MzFCQzJGX0U5RTlEIiwgIm9hdCI6IDE3NDQ3NDc1NTQsICJydF9leHAiOiAxNzYyNjgzODcyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5Ni4zMi4yNTMiLCAiaXBfY29uZmlybWVyIjogIjE1NC4xOTYuMzIuMjUzIiB9.UcuBjVCmaqcJzf-M_UgH2RMDw_LrwGnXhfcJMkh8bu13xub1F1NCbFvI6L_y1kEXQVo3PlYhrzKbOHgTpz47BA</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=17559226206698645; strInventoryLastContext=730_2; sessionid=bc8845b09f23cc15272b4aa1; steamDidLoginRefresh=1745777042; steamCountry=DE%7C37746249eabdd79a1db02253d3444e0b; steamLoginSecure=76561197996619158%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRV8yNjIwNkJCRV85NzUzNyIsICJzdWIiOiAiNzY1NjExOTc5OTY2MTkxNTgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQ2MzUsICJuYmYiOiAxNzM3MTM3MDQzLCAiaWF0IjogMTc0NTc3NzA0MywgImp0aSI6ICIwMDA2XzI2MzFCQzNBXzQwQ0M4IiwgIm9hdCI6IDE3NDQ3NTIxOTYsICJydF9leHAiOiAxNzYzMjE2NTk4LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS43LjIwNyIsICJpcF9jb25maXJtZXIiOiAiMTU0LjE5NS43LjIwNyIgfQ.D36KJH61KCxO3h7OeeemF_SqqDA1wIFA10q59UTr6mnSB6pDuy8m53P4GfcJuP1tqO6CKXzfrCA6u1YgKrOuDA</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=9d070c58a13110371314f112; steamDidLoginRefresh=1745777120; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQzODYsICJuYmYiOiAxNzM3MTM3MTIwLCAiaWF0IjogMTc0NTc3NzEyMCwgImp0aSI6ICIwMDAxXzI2MzFCQzJGX0Y4OUY0IiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.yjp0TaW89iigVWG0JqwG-CMNTf7acHuQMDEIq5mV1CiRGAn2A7glEv0LMxBQia8ndJNeuxhO_S7A07gIkWZzDg</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,34 +424,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5856FB5A-8935-4F31-8272-2AB75BD3B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8B1A5-9FBE-4B05-91B4-4232DADF2D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>828softloan2u</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; sessionid=b088deff33e9a184c895f7bf; steamDidLoginRefresh=1745776727; steamCountry=NL%7Cfe786801dcda0859d7e04998e2ddbf93; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQ0MzAsICJuYmYiOiAxNzM3MTM2NzI3LCAiaWF0IjogMTc0NTc3NjcyNywgImp0aSI6ICIwMDE2XzI2MzFCQzJFX0JEQjBDIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.uVfsdyXFzFS5zxUERIsq4PogdZorulqkTCEtFNOvtcubn_C150HNjrs8jQhJYQTWU_BeNpaTxFdbIj7HXjMdCg; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745776730%7D</t>
-  </si>
-  <si>
     <t>timezoneOffset=-25200,0; browserid=132400307106941766; sessionid=961b8914a2bb9476b4bb7999; steamDidLoginRefresh=1745776927; steamCountry=DE%7C6d83d682e61bba03efa4076e6f99583a; steamLoginSecure=76561199024280128%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxNV8yNjIwNkQxQV84NThERiIsICJzdWIiOiAiNzY1NjExOTkwMjQyODAxMjgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQzMDEsICJuYmYiOiAxNzM3MTM2OTMxLCAiaWF0IjogMTc0NTc3NjkzMSwgImp0aSI6ICIwMDAxXzI2MzFCQzJGX0U5RTlEIiwgIm9hdCI6IDE3NDQ3NDc1NTQsICJydF9leHAiOiAxNzYyNjgzODcyLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5Ni4zMi4yNTMiLCAiaXBfY29uZmlybWVyIjogIjE1NC4xOTYuMzIuMjUzIiB9.UcuBjVCmaqcJzf-M_UgH2RMDw_LrwGnXhfcJMkh8bu13xub1F1NCbFvI6L_y1kEXQVo3PlYhrzKbOHgTpz47BA</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=9d070c58a13110371314f112; steamDidLoginRefresh=1745777120; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQzODYsICJuYmYiOiAxNzM3MTM3MTIwLCAiaWF0IjogMTc0NTc3NzEyMCwgImp0aSI6ICIwMDAxXzI2MzFCQzJGX0Y4OUY0IiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.yjp0TaW89iigVWG0JqwG-CMNTf7acHuQMDEIq5mV1CiRGAn2A7glEv0LMxBQia8ndJNeuxhO_S7A07gIkWZzDg</t>
+  </si>
+  <si>
+    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQ0MzAsICJuYmYiOiAxNzM3MTM2NzI3LCAiaWF0IjogMTc0NTc3NjcyNywgImp0aSI6ICIwMDE2XzI2MzFCQzJFX0JEQjBDIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.uVfsdyXFzFS5zxUERIsq4PogdZorulqkTCEtFNOvtcubn_C150HNjrs8jQhJYQTWU_BeNpaTxFdbIj7HXjMdCg; sessionid=be3cfce7649b482566f44a4c; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745781195%7D</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -432,7 +432,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E8B1A5-9FBE-4B05-91B4-4232DADF2D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C903F-7178-462B-97DE-49D1C54E9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15900" yWindow="1995" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15345" yWindow="1170" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>timezoneOffset=-25200,0; browserid=167303913814845574; sessionid=9d070c58a13110371314f112; steamDidLoginRefresh=1745777120; steamCountry=DE%7Cac858e122b2633b84b8f2b5727a475d4; steamLoginSecure=76561197994172778%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxM18yNjI4N0YxQl81NDVGNyIsICJzdWIiOiAiNzY1NjExOTc5OTQxNzI3NzgiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQzODYsICJuYmYiOiAxNzM3MTM3MTIwLCAiaWF0IjogMTc0NTc3NzEyMCwgImp0aSI6ICIwMDAxXzI2MzFCQzJGX0Y4OUY0IiwgIm9hdCI6IDE3NDQ3NTYxNzksICJydF9leHAiOiAxNzYyOTc1NDU1LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiMTU0LjE5NS4xMjcuMTgxIiwgImlwX2NvbmZpcm1lciI6ICIxNTQuMTk1LjEyNy4xODEiIH0.yjp0TaW89iigVWG0JqwG-CMNTf7acHuQMDEIq5mV1CiRGAn2A7glEv0LMxBQia8ndJNeuxhO_S7A07gIkWZzDg</t>
   </si>
   <si>
-    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAwRl8yNjI4N0Y1Ql83MkE2MiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4NjQ0MzAsICJuYmYiOiAxNzM3MTM2NzI3LCAiaWF0IjogMTc0NTc3NjcyNywgImp0aSI6ICIwMDE2XzI2MzFCQzJFX0JEQjBDIiwgIm9hdCI6IDE3NDUwODIxNTQsICJydF9leHAiOiAxNzYzMjc4MzY0LCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.uVfsdyXFzFS5zxUERIsq4PogdZorulqkTCEtFNOvtcubn_C150HNjrs8jQhJYQTWU_BeNpaTxFdbIj7HXjMdCg; sessionid=be3cfce7649b482566f44a4c; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745781195%7D</t>
+    <t>timezoneOffset=-25200,0; cookieSettings=%7B%22version%22%3A1%2C%22preference_state%22%3A1%2C%22content_customization%22%3Anull%2C%22valve_analytics%22%3Anull%2C%22third_party_analytics%22%3Anull%2C%22third_party_content%22%3Anull%2C%22utm_enabled%22%3Atrue%7D; browserid=190948370231941085; strInventoryLastContext=730_2; steamLoginSecure=76561198006398599%7C%7CeyAidHlwIjogIkpXVCIsICJhbGciOiAiRWREU0EiIH0.eyAiaXNzIjogInI6MDAxMl8yNjMxQkMzNF9CQzRFNiIsICJzdWIiOiAiNzY1NjExOTgwMDYzOTg1OTkiLCAiYXVkIjogWyAid2ViOmNvbW11bml0eSIgXSwgImV4cCI6IDE3NDU4ODYwNTUsICJuYmYiOiAxNzM3MTU4NDc5LCAiaWF0IjogMTc0NTc5ODQ3OSwgImp0aSI6ICIwMDE2XzI2MzFCQzM0Xzc4MDEwIiwgIm9hdCI6IDE3NDU3OTg0NzksICJydF9leHAiOiAxNzYzNjA2MzcxLCAicGVyIjogMCwgImlwX3N1YmplY3QiOiAiOTUuMjE1LjIwNi4yMDEiLCAiaXBfY29uZmlybWVyIjogIjk1LjIxNS4yMDYuMjAxIiB9.G-SZtxyFBFNMI3Lg3EOcj-ZbzBlT7dp8LzPdzuBJ7X6q3ZgRd0oYUNG2R_J3p0AdfMovBI0ixnIBUdM4FLq0AA; sessionid=7cba4cf2b425d41f623ad948; webTradeEligibility=%7B%22allowed%22%3A1%2C%22allowed_at_time%22%3A0%2C%22steamguard_required_days%22%3A15%2C%22new_device_cooldown_days%22%3A0%2C%22time_checked%22%3A1745811555%7D</t>
   </si>
 </sst>
 </file>
@@ -84,14 +84,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF191D17"/>
+      <color rgb="FF221A15"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF221A15"/>
+      <color rgb="FF191D17"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="204"/>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
@@ -431,19 +431,19 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,6 +453,9 @@
       <c r="B5" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/static/accounts_buyer.xlsx
+++ b/static/accounts_buyer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Максим\Desktop\файлы скрипта с сервера\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8C903F-7178-462B-97DE-49D1C54E9664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C56E6-930A-4512-90F6-D5E77630B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15345" yWindow="1170" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16200" yWindow="765" windowWidth="15570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
